--- a/英语学习课程.xlsx
+++ b/英语学习课程.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="时间规划" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="123">
   <si>
     <t>任务执行</t>
   </si>
@@ -330,12 +330,21 @@
     <t>ip</t>
   </si>
   <si>
+    <t>39.100.95.147</t>
+  </si>
+  <si>
     <t>账号</t>
   </si>
   <si>
+    <t>root</t>
+  </si>
+  <si>
     <t>密码</t>
   </si>
   <si>
+    <t>sgzxkt2020...</t>
+  </si>
+  <si>
     <t>api项目地址</t>
   </si>
   <si>
@@ -348,6 +357,9 @@
     <t>mysql地址</t>
   </si>
   <si>
+    <t>sgzxkt sgzxkt2020...</t>
+  </si>
+  <si>
     <t>ssl证书地址</t>
   </si>
   <si>
@@ -360,7 +372,22 @@
     <t>域名</t>
   </si>
   <si>
+    <t>sgzxkt.com</t>
+  </si>
+  <si>
     <t>密钥</t>
+  </si>
+  <si>
+    <t>微信appid</t>
+  </si>
+  <si>
+    <t>wx1411ecdfc3c6e585</t>
+  </si>
+  <si>
+    <t>appkey</t>
+  </si>
+  <si>
+    <t>aaebab80b3d04901b8ce737b71699548</t>
   </si>
 </sst>
 </file>
@@ -370,8 +397,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -398,7 +425,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,6 +453,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -428,7 +484,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -449,15 +505,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,21 +537,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -517,14 +552,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -541,187 +568,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,13 +762,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -750,6 +781,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -770,6 +812,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -781,24 +832,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,17 +851,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -840,10 +867,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -855,130 +882,130 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1457,7 +1484,7 @@
   <sheetPr/>
   <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -2010,75 +2037,118 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:B15"/>
+  <dimension ref="B2:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="40.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="25.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="3" spans="2:2">
+      <c r="C2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>104</v>
+      </c>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
       <c r="B9" t="s">
-        <v>108</v>
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" t="s">
-        <v>112</v>
+        <v>116</v>
+      </c>
+      <c r="C14" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
